--- a/Excel/009_Valores+duplicados.xlsx
+++ b/Excel/009_Valores+duplicados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Curso de Excel\Udemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3129CA84-A7A0-4877-9ED3-755D62BBB4C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A20083-CFAF-4903-9739-E08C92A5EE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="894" xr2:uid="{193F081A-02DB-4BD2-87B0-9E4D48AC40BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="894" activeTab="1" xr2:uid="{193F081A-02DB-4BD2-87B0-9E4D48AC40BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="14" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="50">
   <si>
     <t>UF</t>
   </si>
@@ -164,6 +164,33 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Silvio</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>Rio Branco</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Página inicial &gt; Formatação Condicional &gt; Regras de realce de células &gt; Valores Duplicados</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -173,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +217,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -272,12 +314,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -290,231 +354,6 @@
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="225">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="225">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <gradientFill degree="45">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="225">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="225">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="225">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <gradientFill degree="45">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="225">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -540,10 +379,10 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela Dinâmica 1" table="0" count="1" xr9:uid="{0899B25B-2D16-4A37-8FB0-0893882EC093}">
-      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
     <tableStyle name="Estilo de Tabela Dinâmica 2" table="0" count="1" xr9:uid="{C8D3D828-D729-4C27-A447-A441ABC56B08}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -863,22 +702,22 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.69140625" customWidth="1"/>
+    <col min="3" max="3" width="21.3828125" customWidth="1"/>
+    <col min="4" max="4" width="21.3828125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3828125" customWidth="1"/>
+    <col min="7" max="7" width="14.3046875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.3828125" customWidth="1"/>
+    <col min="9" max="9" width="21.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -930,7 +769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -956,7 +795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -982,7 +821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1008,7 +847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1034,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1086,7 +925,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1112,7 +951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1138,7 +977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +1003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1216,7 +1055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1242,7 +1081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1268,7 +1107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1294,7 +1133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1320,7 +1159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
@@ -1346,7 +1185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
@@ -1372,7 +1211,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1424,7 +1263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +1289,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -1476,7 +1315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -1502,7 +1341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -1528,7 +1367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -1554,7 +1393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
@@ -1606,7 +1445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -1632,7 +1471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
@@ -1658,7 +1497,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -1684,7 +1523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
@@ -1710,7 +1549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -1736,7 +1575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
@@ -1764,6 +1603,928 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B34">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D34">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDEF0D7-B775-4643-BF43-1CCD16C3E508}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.69140625" customWidth="1"/>
+    <col min="3" max="3" width="21.3828125" customWidth="1"/>
+    <col min="4" max="4" width="21.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15.3828125" customWidth="1"/>
+    <col min="7" max="7" width="14.3046875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.3828125" customWidth="1"/>
+    <col min="9" max="9" width="21.3828125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44124</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6">
+        <v>44198</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44138</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44173</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44152</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6">
+        <v>44159</v>
+      </c>
+      <c r="G7" s="4">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44166</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44173</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44180</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="6">
+        <v>44187</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6">
+        <v>44194</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6</v>
+      </c>
+      <c r="H12" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="6">
+        <v>44168</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="6">
+        <v>44208</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="6">
+        <v>44215</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="6">
+        <v>44222</v>
+      </c>
+      <c r="G16" s="4">
+        <v>7</v>
+      </c>
+      <c r="H16" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="6">
+        <v>44229</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="6">
+        <v>44236</v>
+      </c>
+      <c r="G18" s="4">
+        <v>6</v>
+      </c>
+      <c r="H18" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="6">
+        <v>44243</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+      <c r="H19" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="6">
+        <v>44250</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="6">
+        <v>44257</v>
+      </c>
+      <c r="G21" s="4">
+        <v>9</v>
+      </c>
+      <c r="H21" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="6">
+        <v>44264</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4</v>
+      </c>
+      <c r="H22" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="6">
+        <v>44271</v>
+      </c>
+      <c r="G23" s="4">
+        <v>6</v>
+      </c>
+      <c r="H23" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="6">
+        <v>44278</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="H24" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="6">
+        <v>44285</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5</v>
+      </c>
+      <c r="H25" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="6">
+        <v>44292</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3</v>
+      </c>
+      <c r="H26" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="6">
+        <v>44299</v>
+      </c>
+      <c r="G27" s="4">
+        <v>7</v>
+      </c>
+      <c r="H27" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="6">
+        <v>44306</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="6">
+        <v>44313</v>
+      </c>
+      <c r="G29" s="4">
+        <v>6</v>
+      </c>
+      <c r="H29" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="6">
+        <v>44320</v>
+      </c>
+      <c r="G30" s="4">
+        <v>4</v>
+      </c>
+      <c r="H30" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="6">
+        <v>44327</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="6">
+        <v>44334</v>
+      </c>
+      <c r="G32" s="4">
+        <v>9</v>
+      </c>
+      <c r="H32" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="6">
+        <v>44341</v>
+      </c>
+      <c r="G33" s="4">
+        <v>4</v>
+      </c>
+      <c r="H33" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="6">
+        <v>44348</v>
+      </c>
+      <c r="G34" s="4">
+        <v>6</v>
+      </c>
+      <c r="H34" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <conditionalFormatting sqref="B2:B34">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
@@ -1773,913 +2534,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDEF0D7-B775-4643-BF43-1CCD16C3E508}">
-  <dimension ref="A1:H34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="6">
-        <v>44124</v>
-      </c>
-      <c r="G2" s="4">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="6">
-        <v>44198</v>
-      </c>
-      <c r="G3" s="4">
-        <v>5</v>
-      </c>
-      <c r="H3" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="6">
-        <v>44138</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="6">
-        <v>44173</v>
-      </c>
-      <c r="G5" s="4">
-        <v>7</v>
-      </c>
-      <c r="H5" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="6">
-        <v>44152</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="6">
-        <v>44159</v>
-      </c>
-      <c r="G7" s="4">
-        <v>6</v>
-      </c>
-      <c r="H7" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="6">
-        <v>44166</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4</v>
-      </c>
-      <c r="H8" s="5">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="6">
-        <v>44173</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="6">
-        <v>44180</v>
-      </c>
-      <c r="G10" s="4">
-        <v>9</v>
-      </c>
-      <c r="H10" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="6">
-        <v>44187</v>
-      </c>
-      <c r="G11" s="4">
-        <v>4</v>
-      </c>
-      <c r="H11" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="6">
-        <v>44194</v>
-      </c>
-      <c r="G12" s="4">
-        <v>6</v>
-      </c>
-      <c r="H12" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="6">
-        <v>44168</v>
-      </c>
-      <c r="G13" s="4">
-        <v>3</v>
-      </c>
-      <c r="H13" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="6">
-        <v>44208</v>
-      </c>
-      <c r="G14" s="4">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="6">
-        <v>44215</v>
-      </c>
-      <c r="G15" s="4">
-        <v>3</v>
-      </c>
-      <c r="H15" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="6">
-        <v>44222</v>
-      </c>
-      <c r="G16" s="4">
-        <v>7</v>
-      </c>
-      <c r="H16" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="6">
-        <v>44229</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2</v>
-      </c>
-      <c r="H17" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="6">
-        <v>44236</v>
-      </c>
-      <c r="G18" s="4">
-        <v>6</v>
-      </c>
-      <c r="H18" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="6">
-        <v>44243</v>
-      </c>
-      <c r="G19" s="4">
-        <v>4</v>
-      </c>
-      <c r="H19" s="5">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="6">
-        <v>44250</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="6">
-        <v>44257</v>
-      </c>
-      <c r="G21" s="4">
-        <v>9</v>
-      </c>
-      <c r="H21" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="6">
-        <v>44264</v>
-      </c>
-      <c r="G22" s="4">
-        <v>4</v>
-      </c>
-      <c r="H22" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="6">
-        <v>44271</v>
-      </c>
-      <c r="G23" s="4">
-        <v>6</v>
-      </c>
-      <c r="H23" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="6">
-        <v>44278</v>
-      </c>
-      <c r="G24" s="4">
-        <v>3</v>
-      </c>
-      <c r="H24" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="6">
-        <v>44285</v>
-      </c>
-      <c r="G25" s="4">
-        <v>5</v>
-      </c>
-      <c r="H25" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="6">
-        <v>44292</v>
-      </c>
-      <c r="G26" s="4">
-        <v>3</v>
-      </c>
-      <c r="H26" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="6">
-        <v>44299</v>
-      </c>
-      <c r="G27" s="4">
-        <v>7</v>
-      </c>
-      <c r="H27" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="6">
-        <v>44306</v>
-      </c>
-      <c r="G28" s="4">
-        <v>2</v>
-      </c>
-      <c r="H28" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="6">
-        <v>44313</v>
-      </c>
-      <c r="G29" s="4">
-        <v>6</v>
-      </c>
-      <c r="H29" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="6">
-        <v>44320</v>
-      </c>
-      <c r="G30" s="4">
-        <v>4</v>
-      </c>
-      <c r="H30" s="5">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="6">
-        <v>44327</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="6">
-        <v>44334</v>
-      </c>
-      <c r="G32" s="4">
-        <v>9</v>
-      </c>
-      <c r="H32" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="6">
-        <v>44341</v>
-      </c>
-      <c r="G33" s="4">
-        <v>4</v>
-      </c>
-      <c r="H33" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="6">
-        <v>44348</v>
-      </c>
-      <c r="G34" s="4">
-        <v>6</v>
-      </c>
-      <c r="H34" s="5">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>